--- a/uploads/test_3.xlsx
+++ b/uploads/test_3.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\QQ831KU\spend_analytics_tracker\test\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AE924BE-2A95-4927-9AE8-1D04A436957A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8243F72D-2EDF-4E80-A1E6-9518D586CF23}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2240" yWindow="2240" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2240" yWindow="2200" windowWidth="14400" windowHeight="7360" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,9 +57,6 @@
     <t>j</t>
   </si>
   <si>
-    <t>EY</t>
-  </si>
-  <si>
     <t>Profit Improvement</t>
   </si>
   <si>
@@ -79,6 +76,9 @@
   </si>
   <si>
     <t>Identification</t>
+  </si>
+  <si>
+    <t>Ernst and Young LLP</t>
   </si>
 </sst>
 </file>
@@ -399,7 +399,7 @@
   <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D1" sqref="A1:D6"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -412,16 +412,16 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
         <v>16</v>
-      </c>
-      <c r="B1" t="s">
-        <v>15</v>
-      </c>
-      <c r="C1" t="s">
-        <v>14</v>
-      </c>
-      <c r="D1" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.35">
@@ -474,7 +474,7 @@
         <v>400</v>
       </c>
       <c r="C5" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D5" t="s">
         <v>9</v>
@@ -482,16 +482,16 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
       <c r="B6">
         <v>100</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D6" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>
